--- a/ResultOfExper.xlsx
+++ b/ResultOfExper.xlsx
@@ -16,12 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
   <si>
     <t>DELTA</t>
+  </si>
+  <si>
+    <t>Num of cones</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Max width</t>
+  </si>
+  <si>
+    <t>Average width</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Min determ</t>
   </si>
 </sst>
 </file>
@@ -38,15 +56,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -181,10 +205,81 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -193,45 +288,150 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,240 +735,964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I19"/>
+  <dimension ref="B3:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="3" t="s">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>6</v>
       </c>
       <c r="H4" s="5">
         <v>7</v>
       </c>
-      <c r="I4" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6</v>
+      </c>
+      <c r="P4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="13">
+      <c r="C5" s="1"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
         <v>14</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="E6" s="30">
+        <v>38</v>
+      </c>
+      <c r="F6" s="24">
+        <v>63</v>
+      </c>
+      <c r="G6" s="30">
+        <v>117</v>
+      </c>
+      <c r="H6" s="37">
+        <v>166</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="10">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="23">
+        <v>14</v>
+      </c>
+      <c r="M6" s="30">
+        <v>38</v>
+      </c>
+      <c r="N6" s="24">
+        <v>63</v>
+      </c>
+      <c r="O6" s="30">
+        <v>117</v>
+      </c>
+      <c r="P6" s="37">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13">
+      <c r="D7" s="25">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E7" s="28">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="F7" s="21">
+        <v>4.7859999999999996</v>
+      </c>
+      <c r="G7" s="28">
+        <v>10.169</v>
+      </c>
+      <c r="H7" s="38">
+        <v>16.591000000000001</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="M7" s="28">
+        <v>2.68</v>
+      </c>
+      <c r="N7" s="21">
+        <v>4.88</v>
+      </c>
+      <c r="O7" s="28">
+        <v>9.8450000000000006</v>
+      </c>
+      <c r="P7" s="38">
+        <v>16.024999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.70710700000000004</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.70710700000000004</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.70710700000000004</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.70710700000000004</v>
+      </c>
+      <c r="H8" s="38">
+        <v>0.70710700000000004</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P8" s="38">
+        <v>0.66666700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.44737900000000003</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.38908199999999998</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.35996699999999998</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.32910899999999998</v>
+      </c>
+      <c r="H9" s="39">
+        <v>0.30900300000000003</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="25">
+        <v>2</v>
+      </c>
+      <c r="M9" s="28">
+        <v>2</v>
+      </c>
+      <c r="N9" s="21">
+        <v>4</v>
+      </c>
+      <c r="O9" s="28">
+        <v>3</v>
+      </c>
+      <c r="P9" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="25">
         <v>36</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7">
-        <v>1.353</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+      <c r="E10" s="28">
+        <v>132</v>
+      </c>
+      <c r="F10" s="21">
+        <v>257</v>
+      </c>
+      <c r="G10" s="28">
+        <v>581</v>
+      </c>
+      <c r="H10" s="15">
+        <v>924</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.49705899999999997</v>
+      </c>
+      <c r="M10" s="32">
+        <v>0.41017999999999999</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0.37298399999999998</v>
+      </c>
+      <c r="O10" s="32">
+        <v>0.32738899999999999</v>
+      </c>
+      <c r="P10" s="39">
+        <v>0.30692999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="25">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="E11" s="28">
+        <v>10.907</v>
+      </c>
+      <c r="F11" s="21">
+        <v>25.713999999999999</v>
+      </c>
+      <c r="G11" s="28">
+        <v>72.41</v>
+      </c>
+      <c r="H11" s="15">
+        <v>134.62299999999999</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="10">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="23">
+        <v>36</v>
+      </c>
+      <c r="M11" s="30">
+        <v>132</v>
+      </c>
+      <c r="N11" s="24">
+        <v>257</v>
+      </c>
+      <c r="O11" s="30">
+        <v>581</v>
+      </c>
+      <c r="P11" s="37">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13">
+      <c r="D12" s="25">
+        <v>0.57735000000000003</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.57735000000000003</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.57735000000000003</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.57735000000000003</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.57735000000000003</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="25">
+        <v>2.996</v>
+      </c>
+      <c r="M12" s="28">
+        <v>11.372999999999999</v>
+      </c>
+      <c r="N12" s="21">
+        <v>29.619</v>
+      </c>
+      <c r="O12" s="28">
+        <v>71.397000000000006</v>
+      </c>
+      <c r="P12" s="38">
+        <v>126.133</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.35466399999999998</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0.30838599999999999</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0.28299099999999999</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0.25750400000000001</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.24071300000000001</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M13" s="28">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P13" s="38">
+        <v>0.68831200000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="23">
         <v>98</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7">
-        <v>3.6259999999999999</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+      <c r="E14" s="30">
+        <v>482</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1107</v>
+      </c>
+      <c r="G14" s="31">
+        <v>3051</v>
+      </c>
+      <c r="H14" s="37">
+        <v>5452</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="25">
+        <v>2</v>
+      </c>
+      <c r="M14" s="28">
+        <v>2</v>
+      </c>
+      <c r="N14" s="21">
+        <v>2</v>
+      </c>
+      <c r="O14" s="28">
+        <v>2</v>
+      </c>
+      <c r="P14" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="25">
+        <v>8.75</v>
+      </c>
+      <c r="E15" s="28">
+        <v>56.143000000000001</v>
+      </c>
+      <c r="F15" s="21">
+        <v>161.874</v>
+      </c>
+      <c r="G15" s="29">
+        <v>665.80499999999995</v>
+      </c>
+      <c r="H15" s="38">
+        <v>1504.89</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13">
+      <c r="L15" s="26">
+        <v>0.43828499999999998</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0.348858</v>
+      </c>
+      <c r="N15" s="27">
+        <v>0.30562299999999998</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0.26114999999999999</v>
+      </c>
+      <c r="P15" s="39">
+        <v>0.23847699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="10">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="23">
+        <v>98</v>
+      </c>
+      <c r="M16" s="30">
+        <v>482</v>
+      </c>
+      <c r="N16" s="24">
+        <v>1107</v>
+      </c>
+      <c r="O16" s="30">
+        <v>3051</v>
+      </c>
+      <c r="P16" s="37">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.30141899999999999</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.26164300000000001</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0.23871700000000001</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.21696699999999999</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0.202097</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="25">
+        <v>9.298</v>
+      </c>
+      <c r="M17" s="28">
+        <v>59.16</v>
+      </c>
+      <c r="N17" s="21">
+        <v>181.369</v>
+      </c>
+      <c r="O17" s="28">
+        <v>700.35299999999995</v>
+      </c>
+      <c r="P17" s="38">
+        <v>1261.47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="23">
         <v>276</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13">
-        <v>9.9619999999999997</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="E18" s="30">
+        <v>1812</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="M18" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="O18" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="P18" s="38">
+        <v>0.68831200000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="25">
+        <v>34.018999999999998</v>
+      </c>
+      <c r="E19" s="28">
+        <v>705.79700000000003</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="25">
+        <v>2</v>
+      </c>
+      <c r="M19" s="28">
+        <v>2</v>
+      </c>
+      <c r="N19" s="21">
+        <v>2</v>
+      </c>
+      <c r="O19" s="28">
+        <v>2</v>
+      </c>
+      <c r="P19" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.447214</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.447214</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0.447214</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="26">
+        <v>0.40831000000000001</v>
+      </c>
+      <c r="M20" s="32">
+        <v>0.31898199999999999</v>
+      </c>
+      <c r="N20" s="27">
+        <v>0.273843</v>
+      </c>
+      <c r="O20" s="32">
+        <v>0.23067799999999999</v>
+      </c>
+      <c r="P20" s="39">
+        <v>0.208033</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.26572499999999999</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.230686</v>
+      </c>
+      <c r="F21" s="47">
+        <v>0.21734800000000001</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="10">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="23">
+        <v>276</v>
+      </c>
+      <c r="M21" s="30">
+        <v>1812</v>
+      </c>
+      <c r="N21" s="24"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="37"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
         <v>6</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13">
+      <c r="C22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="23">
         <v>794</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7">
-        <v>34.530999999999999</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="25">
+        <v>36.734000000000002</v>
+      </c>
+      <c r="M22" s="28">
+        <v>858.75400000000002</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="25">
+        <v>2343.5500000000002</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="M23" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.408248</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="13">
-        <v>2316</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7">
-        <v>1240.44</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="L24" s="25">
+        <v>2</v>
+      </c>
+      <c r="M24" s="28">
+        <v>2</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="38"/>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.24014199999999999</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0.38919999999999999</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0.3014</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="39"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>7</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="10">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="23">
+        <v>794</v>
+      </c>
+      <c r="M26" s="30"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="37"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="25">
+        <v>2622.44</v>
+      </c>
+      <c r="M27" s="28"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="38"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="M28" s="28"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="38"/>
+    </row>
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="25">
+        <v>2</v>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="38"/>
+    </row>
+    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="11"/>
+      <c r="K30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="26">
+        <v>0.37670999999999999</v>
+      </c>
+      <c r="M30" s="32"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="11">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
